--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_8.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-81014.79964649271</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30789066.36991068</v>
+        <v>25977670.30251236</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.238855366945955e-10</v>
+        <v>2152532.308844337</v>
       </c>
     </row>
     <row r="11">
@@ -23270,49 +23272,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J11" t="n">
-        <v>181.0459045266863</v>
+        <v>92.06191329280011</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>46.25150133729363</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q11" t="n">
-        <v>222.3056898744495</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R11" t="n">
-        <v>215.5855378141321</v>
+        <v>149.7272407629755</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,49 +23351,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.20868489375378</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>73.83937108913167</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>110.8508838462542</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,49 +23430,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9909793584588</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J13" t="n">
-        <v>126.9954214393961</v>
+        <v>93.74601906876785</v>
       </c>
       <c r="K13" t="n">
-        <v>129.0132581705354</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L13" t="n">
-        <v>134.8846762812383</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M13" t="n">
-        <v>138.9257839476051</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N13" t="n">
-        <v>127.6855444652332</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O13" t="n">
-        <v>138.4565384518428</v>
+        <v>71.98338581476828</v>
       </c>
       <c r="P13" t="n">
-        <v>137.7280040491476</v>
+        <v>80.84873837615825</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.5050016294458</v>
+        <v>112.1247463593087</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,49 +23509,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J14" t="n">
-        <v>181.0459045266863</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q14" t="n">
-        <v>222.3056898744495</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R14" t="n">
-        <v>215.5855378141321</v>
+        <v>149.7272407629756</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,49 +23588,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>80.20868489375378</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>110.8508838462542</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,49 +23667,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J16" t="n">
-        <v>126.9954214393961</v>
+        <v>93.74601906876785</v>
       </c>
       <c r="K16" t="n">
-        <v>129.0132581705354</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L16" t="n">
-        <v>134.8846762812383</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M16" t="n">
-        <v>138.9257839476051</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N16" t="n">
-        <v>127.6855444652332</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O16" t="n">
-        <v>138.4565384518428</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P16" t="n">
-        <v>137.7280040491476</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.5050016294458</v>
+        <v>112.1247463593087</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,49 +23746,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J17" t="n">
-        <v>181.0459045266863</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q17" t="n">
-        <v>222.3056898744495</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R17" t="n">
-        <v>215.5855378141321</v>
+        <v>149.7272407629756</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,49 +23825,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>80.20868489375378</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>110.8508838462542</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,49 +23904,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.9909793584588</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H19" t="n">
-        <v>162.2271725074396</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I19" t="n">
-        <v>155.4504749272583</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J19" t="n">
-        <v>126.9954214393961</v>
+        <v>93.74601906876785</v>
       </c>
       <c r="K19" t="n">
-        <v>129.0132581705354</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L19" t="n">
-        <v>134.8846762812383</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M19" t="n">
-        <v>138.9257839476051</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N19" t="n">
-        <v>127.6855444652332</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O19" t="n">
-        <v>138.4565384518428</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P19" t="n">
-        <v>137.7280040491476</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.5050016294458</v>
+        <v>112.1247463593087</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,49 +23983,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J20" t="n">
-        <v>181.0459045266863</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0898510449805</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L20" t="n">
-        <v>235.7664149699872</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M20" t="n">
-        <v>230.3462332272727</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N20" t="n">
-        <v>229.4130635965909</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O20" t="n">
-        <v>230.0982114216867</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P20" t="n">
-        <v>231.2329957552695</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q20" t="n">
-        <v>222.3056898744495</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R20" t="n">
-        <v>215.5855378141321</v>
+        <v>149.7272407629756</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,49 +24062,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>80.20868489375378</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>110.8508838462542</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,49 +24141,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9909793584588</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H22" t="n">
-        <v>162.2271725074396</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I22" t="n">
-        <v>155.4504749272583</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J22" t="n">
-        <v>126.9954214393961</v>
+        <v>93.74601906876785</v>
       </c>
       <c r="K22" t="n">
-        <v>129.0132581705354</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L22" t="n">
-        <v>134.8846762812383</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M22" t="n">
-        <v>138.9257839476051</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N22" t="n">
-        <v>127.6855444652332</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O22" t="n">
-        <v>138.4565384518428</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P22" t="n">
-        <v>137.7280040491476</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.5050016294458</v>
+        <v>112.1247463593087</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,49 +24220,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J23" t="n">
-        <v>181.0459045266863</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K23" t="n">
-        <v>220.0898510449805</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L23" t="n">
-        <v>235.7664149699872</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M23" t="n">
-        <v>230.3462332272727</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N23" t="n">
-        <v>229.4130635965909</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O23" t="n">
-        <v>230.0982114216867</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P23" t="n">
-        <v>231.2329957552695</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q23" t="n">
-        <v>222.3056898744495</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R23" t="n">
-        <v>215.5855378141321</v>
+        <v>149.7272407629756</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,49 +24299,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>80.20868489375378</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>110.8508838462542</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,49 +24378,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9909793584588</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H25" t="n">
-        <v>162.2271725074396</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I25" t="n">
-        <v>155.4504749272583</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J25" t="n">
-        <v>126.9954214393961</v>
+        <v>93.74601906876785</v>
       </c>
       <c r="K25" t="n">
-        <v>129.0132581705354</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L25" t="n">
-        <v>134.8846762812383</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M25" t="n">
-        <v>138.9257839476051</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N25" t="n">
-        <v>127.6855444652332</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O25" t="n">
-        <v>138.4565384518428</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P25" t="n">
-        <v>137.7280040491476</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.5050016294458</v>
+        <v>112.1247463593087</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,49 +24457,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J26" t="n">
-        <v>181.0459045266863</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K26" t="n">
-        <v>220.0898510449805</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L26" t="n">
-        <v>235.7664149699872</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M26" t="n">
-        <v>230.3462332272727</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N26" t="n">
-        <v>229.4130635965909</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O26" t="n">
-        <v>230.0982114216867</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P26" t="n">
-        <v>231.2329957552695</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q26" t="n">
-        <v>222.3056898744495</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R26" t="n">
-        <v>215.5855378141321</v>
+        <v>149.7272407629756</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,49 +24536,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>80.20868489375378</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>110.8508838462542</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,49 +24615,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.9909793584588</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I28" t="n">
-        <v>155.4504749272583</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J28" t="n">
-        <v>126.9954214393961</v>
+        <v>93.74601906876785</v>
       </c>
       <c r="K28" t="n">
-        <v>129.0132581705354</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L28" t="n">
-        <v>134.8846762812383</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M28" t="n">
-        <v>138.9257839476051</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N28" t="n">
-        <v>127.6855444652332</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O28" t="n">
-        <v>138.4565384518428</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P28" t="n">
-        <v>137.7280040491476</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.5050016294458</v>
+        <v>112.1247463593087</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24692,49 +24694,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J29" t="n">
-        <v>181.0459045266863</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K29" t="n">
-        <v>220.0898510449805</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L29" t="n">
-        <v>235.7664149699872</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M29" t="n">
-        <v>230.3462332272727</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N29" t="n">
-        <v>229.4130635965909</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O29" t="n">
-        <v>230.0982114216867</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P29" t="n">
-        <v>231.2329957552695</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q29" t="n">
-        <v>222.3056898744495</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R29" t="n">
-        <v>215.5855378141321</v>
+        <v>149.7272407629756</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24771,49 +24773,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>80.20868489375378</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>110.8508838462542</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24850,49 +24852,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9909793584588</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H31" t="n">
-        <v>162.2271725074396</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I31" t="n">
-        <v>155.4504749272583</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J31" t="n">
-        <v>126.9954214393961</v>
+        <v>93.74601906876785</v>
       </c>
       <c r="K31" t="n">
-        <v>129.0132581705354</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L31" t="n">
-        <v>134.8846762812383</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M31" t="n">
-        <v>138.9257839476051</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N31" t="n">
-        <v>127.6855444652332</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O31" t="n">
-        <v>138.4565384518428</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P31" t="n">
-        <v>137.7280040491476</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.5050016294458</v>
+        <v>112.1247463593087</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24929,49 +24931,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J32" t="n">
-        <v>181.0459045266863</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K32" t="n">
-        <v>220.0898510449805</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L32" t="n">
-        <v>235.7664149699872</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M32" t="n">
-        <v>230.3462332272727</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N32" t="n">
-        <v>229.4130635965909</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O32" t="n">
-        <v>230.0982114216867</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P32" t="n">
-        <v>231.2329957552695</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q32" t="n">
-        <v>222.3056898744495</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R32" t="n">
-        <v>215.5855378141321</v>
+        <v>149.7272407629756</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25008,49 +25010,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>80.20868489375378</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>110.8508838462542</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25087,49 +25089,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H34" t="n">
-        <v>162.2271725074396</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I34" t="n">
-        <v>155.4504749272583</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J34" t="n">
-        <v>126.9954214393961</v>
+        <v>93.74601906876785</v>
       </c>
       <c r="K34" t="n">
-        <v>129.0132581705354</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L34" t="n">
-        <v>134.8846762812383</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M34" t="n">
-        <v>138.9257839476051</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N34" t="n">
-        <v>127.6855444652332</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O34" t="n">
-        <v>138.4565384518428</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P34" t="n">
-        <v>137.7280040491476</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.5050016294458</v>
+        <v>112.1247463593087</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,49 +25168,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J35" t="n">
-        <v>181.0459045266863</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L35" t="n">
-        <v>235.7664149699872</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M35" t="n">
-        <v>230.3462332272727</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O35" t="n">
-        <v>230.0982114216867</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P35" t="n">
-        <v>231.2329957552695</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q35" t="n">
-        <v>222.3056898744495</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R35" t="n">
-        <v>215.5855378141321</v>
+        <v>149.7272407629756</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,49 +25247,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>80.20868489375378</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>110.8508838462542</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25324,49 +25326,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9909793584588</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H37" t="n">
-        <v>162.2271725074396</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J37" t="n">
-        <v>126.9954214393961</v>
+        <v>93.74601906876785</v>
       </c>
       <c r="K37" t="n">
-        <v>129.0132581705354</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L37" t="n">
-        <v>134.8846762812383</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M37" t="n">
-        <v>138.9257839476051</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N37" t="n">
-        <v>127.6855444652332</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O37" t="n">
-        <v>138.4565384518428</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P37" t="n">
-        <v>137.7280040491476</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.5050016294458</v>
+        <v>112.1247463593087</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25403,49 +25405,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J38" t="n">
-        <v>181.0459045266863</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L38" t="n">
-        <v>235.7664149699872</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M38" t="n">
-        <v>230.3462332272727</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N38" t="n">
-        <v>229.4130635965909</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O38" t="n">
-        <v>230.0982114216867</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P38" t="n">
-        <v>231.2329957552695</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q38" t="n">
-        <v>222.3056898744495</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R38" t="n">
-        <v>215.5855378141321</v>
+        <v>149.7272407629756</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,49 +25484,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>80.20868489375378</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>110.8508838462542</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25561,49 +25563,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2271725074396</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I40" t="n">
-        <v>155.4504749272583</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J40" t="n">
-        <v>126.9954214393961</v>
+        <v>93.74601906876785</v>
       </c>
       <c r="K40" t="n">
-        <v>129.0132581705354</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L40" t="n">
-        <v>134.8846762812383</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M40" t="n">
-        <v>138.9257839476051</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N40" t="n">
-        <v>127.6855444652332</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O40" t="n">
-        <v>138.4565384518428</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P40" t="n">
-        <v>137.7280040491476</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.5050016294458</v>
+        <v>112.1247463593087</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,49 +25642,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J41" t="n">
-        <v>181.0459045266863</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L41" t="n">
-        <v>235.7664149699872</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M41" t="n">
-        <v>230.3462332272727</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O41" t="n">
-        <v>230.0982114216867</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q41" t="n">
-        <v>222.3056898744495</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R41" t="n">
-        <v>215.5855378141321</v>
+        <v>149.7272407629756</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25719,49 +25721,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>80.20868489375378</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>110.8508838462542</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25798,49 +25800,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H43" t="n">
-        <v>162.2271725074396</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I43" t="n">
-        <v>155.4504749272583</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J43" t="n">
-        <v>126.9954214393961</v>
+        <v>93.74601906876785</v>
       </c>
       <c r="K43" t="n">
-        <v>129.0132581705354</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L43" t="n">
-        <v>134.8846762812383</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M43" t="n">
-        <v>138.9257839476051</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N43" t="n">
-        <v>127.6855444652332</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O43" t="n">
-        <v>138.4565384518428</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P43" t="n">
-        <v>137.7280040491476</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q43" t="n">
-        <v>151.5050016294458</v>
+        <v>112.1247463593087</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,49 +25879,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0459045266863</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>20.92686739226639</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q44" t="n">
-        <v>222.3056898744495</v>
+        <v>93.51262335026311</v>
       </c>
       <c r="R44" t="n">
-        <v>215.5855378141321</v>
+        <v>140.6675721459498</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>181.8424978167796</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,49 +25958,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>77.55183396885138</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>66.54876907979123</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>34.79817869043561</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>12.12044141380177</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>106.0597524204047</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,49 +26037,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J46" t="n">
-        <v>126.9954214393961</v>
+        <v>89.17212966257721</v>
       </c>
       <c r="K46" t="n">
-        <v>129.0132581705354</v>
+        <v>66.8579709251007</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M46" t="n">
-        <v>138.9257839476051</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N46" t="n">
-        <v>127.6855444652332</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P46" t="n">
-        <v>137.7280040491476</v>
+        <v>73.02425275703003</v>
       </c>
       <c r="Q46" t="n">
-        <v>151.5050016294458</v>
+        <v>106.7074780912847</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.071384758688509e-11</v>
+        <v>246025.0498429431</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.071384758688509e-11</v>
+        <v>246025.0498429431</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.071384758688509e-11</v>
+        <v>246025.0498429431</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.071384758688509e-11</v>
+        <v>246025.0498429431</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.071384758688509e-11</v>
+        <v>246025.0498429431</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.071384758688509e-11</v>
+        <v>246025.0498429431</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.071384758688509e-11</v>
+        <v>246025.0498429431</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.071384758688509e-11</v>
+        <v>246025.0498429431</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.071384758688509e-11</v>
+        <v>246025.0498429431</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.071384758688509e-11</v>
+        <v>246025.0498429431</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.071384758688509e-11</v>
+        <v>246025.0498429431</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.071384758688509e-11</v>
+        <v>276790.013514558</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>31745.1677216701</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>31745.16772167009</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>31745.16772167009</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>31745.16772167009</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>31745.16772167009</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>31745.16772167009</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>31745.16772167009</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>31745.16772167009</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>31745.16772167009</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>31745.16772167009</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>31745.16772167009</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>35714.84045349135</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>209524.6041377088</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>23878.17049508803</v>
       </c>
     </row>
     <row r="4">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>6467.457040608691</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-183464.7977729194</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26059.80636478936</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>26059.80636478936</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>26059.80636478936</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26059.80636478936</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>26059.80636478936</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>26059.80636478936</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>26059.80636478936</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>26059.80636478936</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>26059.80636478936</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>26059.80636478936</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>5369.212917794624</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>296.6723413123253</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>35.87594879486045</v>
       </c>
     </row>
     <row r="4">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>88.98399123388617</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.8582970511566</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.08387421668903385</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>5.417676003051488</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>10.41955398407041</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.24940237062826</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>66.47315263707451</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>56.87926567298936</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>39.38025527013719</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>45.97974045605395</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>209.4193658350063</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>74.91796566818232</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>27.17757176946578</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>5.220836880782727</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.638125413388775</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>62.15528724543468</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>64.70375129211759</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>9.3232930868152</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_8.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-81014.79964649271</v>
+        <v>-228465.3781192472</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25977670.30251236</v>
+        <v>25068872.22687886</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2152532.308844337</v>
+        <v>2564438.120467269</v>
       </c>
     </row>
     <row r="11">
@@ -23272,49 +23272,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H11" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I11" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J11" t="n">
-        <v>92.06191329280011</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K11" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L11" t="n">
-        <v>70.31665934305323</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M11" t="n">
-        <v>46.25150133729363</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N11" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P11" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R11" t="n">
-        <v>149.7272407629755</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S11" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T11" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23351,22 +23351,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H12" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I12" t="n">
-        <v>80.20868489375378</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J12" t="n">
-        <v>73.83937108913167</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K12" t="n">
-        <v>47.25897875440141</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L12" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -23375,25 +23375,25 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>26.85597970277001</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.37594193669796</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8508838462542</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S12" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T12" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23430,49 +23430,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H13" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I13" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J13" t="n">
-        <v>93.74601906876785</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K13" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L13" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M13" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N13" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O13" t="n">
-        <v>71.98338581476828</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P13" t="n">
-        <v>80.84873837615825</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q13" t="n">
-        <v>112.1247463593087</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R13" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S13" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T13" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23509,49 +23509,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H14" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I14" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J14" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K14" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L14" t="n">
-        <v>70.31665934305323</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M14" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N14" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P14" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q14" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R14" t="n">
-        <v>149.7272407629756</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S14" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T14" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23588,22 +23588,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H15" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I15" t="n">
-        <v>80.20868489375378</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J15" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K15" t="n">
-        <v>47.25897875440141</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L15" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -23612,25 +23612,25 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>26.85597970277001</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.37594193669796</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8508838462542</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S15" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T15" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23667,49 +23667,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H16" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I16" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J16" t="n">
-        <v>93.74601906876785</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K16" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L16" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M16" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N16" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O16" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P16" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q16" t="n">
-        <v>112.1247463593087</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R16" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S16" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T16" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23746,49 +23746,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H17" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I17" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J17" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K17" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L17" t="n">
-        <v>70.31665934305323</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M17" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N17" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P17" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q17" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R17" t="n">
-        <v>149.7272407629756</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S17" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T17" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23825,22 +23825,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H18" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I18" t="n">
-        <v>80.20868489375378</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J18" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K18" t="n">
-        <v>47.25897875440141</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L18" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -23849,25 +23849,25 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>26.85597970277001</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.37594193669796</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8508838462542</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S18" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T18" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23904,49 +23904,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H19" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I19" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J19" t="n">
-        <v>93.74601906876785</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K19" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L19" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M19" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N19" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O19" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P19" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q19" t="n">
-        <v>112.1247463593087</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R19" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S19" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T19" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23983,49 +23983,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H20" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I20" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J20" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K20" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L20" t="n">
-        <v>70.31665934305323</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M20" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N20" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P20" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q20" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R20" t="n">
-        <v>149.7272407629756</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S20" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T20" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24062,22 +24062,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H21" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I21" t="n">
-        <v>80.20868489375378</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J21" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K21" t="n">
-        <v>47.25897875440141</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L21" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -24086,25 +24086,25 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>26.85597970277001</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.37594193669796</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8508838462542</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S21" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T21" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24141,49 +24141,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H22" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I22" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J22" t="n">
-        <v>93.74601906876785</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K22" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L22" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M22" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N22" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O22" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P22" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q22" t="n">
-        <v>112.1247463593087</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R22" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S22" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T22" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24220,49 +24220,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H23" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I23" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J23" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K23" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L23" t="n">
-        <v>70.31665934305323</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M23" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N23" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P23" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q23" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R23" t="n">
-        <v>149.7272407629756</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S23" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T23" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24299,22 +24299,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H24" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I24" t="n">
-        <v>80.20868489375378</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J24" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K24" t="n">
-        <v>47.25897875440141</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L24" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -24323,25 +24323,25 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>26.85597970277001</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q24" t="n">
-        <v>68.37594193669796</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8508838462542</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S24" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T24" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24378,49 +24378,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H25" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I25" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J25" t="n">
-        <v>93.74601906876785</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K25" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L25" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M25" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N25" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O25" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P25" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q25" t="n">
-        <v>112.1247463593087</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R25" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S25" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T25" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24457,49 +24457,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H26" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I26" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J26" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K26" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L26" t="n">
-        <v>70.31665934305323</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M26" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N26" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P26" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q26" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R26" t="n">
-        <v>149.7272407629756</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S26" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T26" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24536,22 +24536,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H27" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I27" t="n">
-        <v>80.20868489375378</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J27" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K27" t="n">
-        <v>47.25897875440141</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L27" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -24560,25 +24560,25 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>26.85597970277001</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q27" t="n">
-        <v>68.37594193669796</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8508838462542</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S27" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T27" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24615,49 +24615,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H28" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I28" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J28" t="n">
-        <v>93.74601906876785</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K28" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L28" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M28" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N28" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O28" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P28" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q28" t="n">
-        <v>112.1247463593087</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R28" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S28" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T28" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24694,49 +24694,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H29" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I29" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J29" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K29" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L29" t="n">
-        <v>70.31665934305323</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M29" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N29" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P29" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q29" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R29" t="n">
-        <v>149.7272407629756</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S29" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T29" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24773,22 +24773,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H30" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I30" t="n">
-        <v>80.20868489375378</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J30" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K30" t="n">
-        <v>47.25897875440141</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L30" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -24797,25 +24797,25 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>26.85597970277001</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q30" t="n">
-        <v>68.37594193669796</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8508838462542</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S30" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T30" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24852,49 +24852,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H31" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I31" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J31" t="n">
-        <v>93.74601906876785</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K31" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L31" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M31" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N31" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O31" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P31" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q31" t="n">
-        <v>112.1247463593087</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R31" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S31" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T31" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24931,49 +24931,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H32" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I32" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J32" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K32" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L32" t="n">
-        <v>70.31665934305323</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M32" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N32" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P32" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R32" t="n">
-        <v>149.7272407629756</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S32" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T32" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25010,22 +25010,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H33" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I33" t="n">
-        <v>80.20868489375378</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J33" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K33" t="n">
-        <v>47.25897875440141</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L33" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -25034,25 +25034,25 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>26.85597970277001</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q33" t="n">
-        <v>68.37594193669796</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8508838462542</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S33" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T33" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25089,49 +25089,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H34" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I34" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J34" t="n">
-        <v>93.74601906876785</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K34" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L34" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M34" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N34" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O34" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P34" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q34" t="n">
-        <v>112.1247463593087</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R34" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S34" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T34" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25168,49 +25168,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H35" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I35" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J35" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K35" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L35" t="n">
-        <v>70.31665934305323</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M35" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N35" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P35" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q35" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R35" t="n">
-        <v>149.7272407629756</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S35" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T35" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25247,22 +25247,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H36" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I36" t="n">
-        <v>80.20868489375378</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J36" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K36" t="n">
-        <v>47.25897875440141</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L36" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -25271,25 +25271,25 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>26.85597970277001</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q36" t="n">
-        <v>68.37594193669796</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8508838462542</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S36" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T36" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25326,49 +25326,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H37" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I37" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J37" t="n">
-        <v>93.74601906876785</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K37" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L37" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M37" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N37" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O37" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P37" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q37" t="n">
-        <v>112.1247463593087</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R37" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S37" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T37" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25405,49 +25405,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H38" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I38" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J38" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K38" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L38" t="n">
-        <v>70.31665934305323</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M38" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N38" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P38" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q38" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R38" t="n">
-        <v>149.7272407629756</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S38" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T38" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25484,22 +25484,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H39" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I39" t="n">
-        <v>80.20868489375378</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J39" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K39" t="n">
-        <v>47.25897875440141</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L39" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -25508,25 +25508,25 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>26.85597970277001</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q39" t="n">
-        <v>68.37594193669796</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8508838462542</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S39" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T39" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25563,49 +25563,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H40" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I40" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J40" t="n">
-        <v>93.74601906876785</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K40" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L40" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M40" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N40" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O40" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P40" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q40" t="n">
-        <v>112.1247463593087</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R40" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S40" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T40" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25642,49 +25642,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H41" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I41" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J41" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K41" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L41" t="n">
-        <v>70.31665934305323</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M41" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N41" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P41" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q41" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R41" t="n">
-        <v>149.7272407629756</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S41" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T41" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25721,22 +25721,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H42" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I42" t="n">
-        <v>80.20868489375378</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J42" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K42" t="n">
-        <v>47.25897875440141</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L42" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -25745,25 +25745,25 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>26.85597970277001</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q42" t="n">
-        <v>68.37594193669796</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8508838462542</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S42" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T42" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25800,49 +25800,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H43" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I43" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J43" t="n">
-        <v>93.74601906876785</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K43" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L43" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M43" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N43" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O43" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P43" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q43" t="n">
-        <v>112.1247463593087</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R43" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S43" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T43" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25879,49 +25879,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.1100848867438</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H44" t="n">
-        <v>327.2605483852552</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I44" t="n">
-        <v>164.496149114352</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J44" t="n">
-        <v>79.82100350776379</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K44" t="n">
-        <v>68.37996426625614</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L44" t="n">
-        <v>47.55688531513388</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M44" t="n">
-        <v>20.92686739226639</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N44" t="n">
-        <v>16.60507348116786</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>29.14966087982927</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P44" t="n">
-        <v>59.72805697682125</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q44" t="n">
-        <v>93.51262335026311</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R44" t="n">
-        <v>140.6675721459498</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S44" t="n">
-        <v>181.8424978167796</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8750126833486</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2502406975652</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25958,19 +25958,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.7053917498219</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H45" t="n">
-        <v>106.0724961650838</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I45" t="n">
-        <v>77.55183396885138</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J45" t="n">
-        <v>66.54876907979123</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K45" t="n">
-        <v>34.79817869043561</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25985,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>12.12044141380177</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q45" t="n">
-        <v>58.52562482607891</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R45" t="n">
-        <v>106.0597524204047</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S45" t="n">
-        <v>159.8302714297086</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T45" t="n">
-        <v>197.5926354715572</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8994001458834</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26037,49 +26037,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4559964478956</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H46" t="n">
-        <v>157.4706880844321</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I46" t="n">
-        <v>139.362079762321</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J46" t="n">
-        <v>89.17212966257721</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K46" t="n">
-        <v>66.8579709251007</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L46" t="n">
-        <v>55.34730792350439</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M46" t="n">
-        <v>55.06478097631943</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N46" t="n">
-        <v>45.81856870604673</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O46" t="n">
-        <v>62.83913578423567</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P46" t="n">
-        <v>73.02425275703003</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q46" t="n">
-        <v>106.7074780912847</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R46" t="n">
-        <v>153.2386143258456</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S46" t="n">
-        <v>214.6933049501571</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T46" t="n">
-        <v>225.6597533558751</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2898484704602</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>246025.0498429431</v>
+        <v>295543.3640566414</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>246025.0498429431</v>
+        <v>295543.3640566414</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>246025.0498429431</v>
+        <v>295543.3640566414</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>246025.0498429431</v>
+        <v>295543.3640566414</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>246025.0498429431</v>
+        <v>295543.3640566414</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>246025.0498429431</v>
+        <v>295543.3640566414</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>246025.0498429431</v>
+        <v>295543.3640566414</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>246025.0498429431</v>
+        <v>295543.3640566414</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>246025.0498429431</v>
+        <v>295543.3640566414</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>246025.0498429431</v>
+        <v>295543.3640566414</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>246025.0498429431</v>
+        <v>295543.3640566414</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>276790.013514558</v>
+        <v>295543.3640566414</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31745.1677216701</v>
+        <v>38134.62762021181</v>
       </c>
       <c r="F2" t="n">
-        <v>31745.16772167009</v>
+        <v>38134.62762021181</v>
       </c>
       <c r="G2" t="n">
-        <v>31745.16772167009</v>
+        <v>38134.62762021181</v>
       </c>
       <c r="H2" t="n">
-        <v>31745.16772167009</v>
+        <v>38134.62762021182</v>
       </c>
       <c r="I2" t="n">
-        <v>31745.16772167009</v>
+        <v>38134.62762021181</v>
       </c>
       <c r="J2" t="n">
-        <v>31745.16772167009</v>
+        <v>38134.62762021181</v>
       </c>
       <c r="K2" t="n">
-        <v>31745.16772167009</v>
+        <v>38134.62762021181</v>
       </c>
       <c r="L2" t="n">
-        <v>31745.16772167009</v>
+        <v>38134.62762021181</v>
       </c>
       <c r="M2" t="n">
-        <v>31745.16772167009</v>
+        <v>38134.62762021181</v>
       </c>
       <c r="N2" t="n">
-        <v>31745.16772167009</v>
+        <v>38134.62762021181</v>
       </c>
       <c r="O2" t="n">
-        <v>31745.16772167009</v>
+        <v>38134.62762021181</v>
       </c>
       <c r="P2" t="n">
-        <v>35714.84045349135</v>
+        <v>38134.62762021181</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>209524.6041377088</v>
+        <v>256945.3264049829</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>23878.17049508803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="F5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="G5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="H5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="I5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="J5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="K5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="L5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="M5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="N5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="O5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="P5" t="n">
-        <v>6467.457040608691</v>
+        <v>6972.10256325733</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="E6" t="n">
-        <v>-183464.7977729194</v>
+        <v>-241542.0171421091</v>
       </c>
       <c r="F6" t="n">
-        <v>26059.80636478936</v>
+        <v>15403.30926287387</v>
       </c>
       <c r="G6" t="n">
-        <v>26059.80636478936</v>
+        <v>15403.30926287387</v>
       </c>
       <c r="H6" t="n">
-        <v>26059.80636478936</v>
+        <v>15403.30926287388</v>
       </c>
       <c r="I6" t="n">
-        <v>26059.80636478936</v>
+        <v>15403.30926287387</v>
       </c>
       <c r="J6" t="n">
-        <v>26059.80636478936</v>
+        <v>15403.30926287387</v>
       </c>
       <c r="K6" t="n">
-        <v>26059.80636478936</v>
+        <v>15403.30926287387</v>
       </c>
       <c r="L6" t="n">
-        <v>26059.80636478936</v>
+        <v>15403.30926287387</v>
       </c>
       <c r="M6" t="n">
-        <v>26059.80636478936</v>
+        <v>15403.30926287387</v>
       </c>
       <c r="N6" t="n">
-        <v>26059.80636478936</v>
+        <v>15403.30926287387</v>
       </c>
       <c r="O6" t="n">
-        <v>26059.80636478936</v>
+        <v>15403.30926287387</v>
       </c>
       <c r="P6" t="n">
-        <v>5369.212917794624</v>
+        <v>15403.30926287387</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="F3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="G3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="H3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="I3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="J3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="K3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="L3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="M3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="N3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="O3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="P3" t="n">
-        <v>296.6723413123253</v>
+        <v>319.8212184980426</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>35.87594879486045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H11" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I11" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J11" t="n">
-        <v>88.98399123388617</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K11" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L11" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M11" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N11" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P11" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q11" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R11" t="n">
-        <v>65.8582970511566</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S11" t="n">
-        <v>23.89104641001701</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T11" t="n">
-        <v>4.589492294453073</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08387421668903385</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H12" t="n">
-        <v>5.417676003051488</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I12" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J12" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K12" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L12" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
@@ -31855,25 +31855,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q12" t="n">
-        <v>71.60583214932356</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R12" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S12" t="n">
-        <v>10.41955398407041</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T12" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H13" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I13" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J13" t="n">
-        <v>33.24940237062826</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K13" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L13" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M13" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N13" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O13" t="n">
-        <v>66.47315263707451</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P13" t="n">
-        <v>56.87926567298936</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.38025527013719</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R13" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S13" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T13" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H14" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I14" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J14" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K14" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L14" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M14" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N14" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P14" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q14" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R14" t="n">
-        <v>65.85829705115658</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S14" t="n">
-        <v>23.89104641001701</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T14" t="n">
-        <v>4.589492294453073</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H15" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I15" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J15" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K15" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L15" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
@@ -32092,25 +32092,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q15" t="n">
-        <v>71.60583214932356</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R15" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S15" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T15" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H16" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I16" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J16" t="n">
-        <v>33.24940237062825</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K16" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L16" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M16" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N16" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O16" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P16" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R16" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S16" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T16" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H17" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I17" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J17" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K17" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L17" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M17" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N17" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P17" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q17" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R17" t="n">
-        <v>65.85829705115658</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S17" t="n">
-        <v>23.89104641001701</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T17" t="n">
-        <v>4.589492294453073</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H18" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I18" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J18" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K18" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L18" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
@@ -32329,25 +32329,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q18" t="n">
-        <v>71.60583214932356</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R18" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S18" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T18" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H19" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I19" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J19" t="n">
-        <v>33.24940237062825</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K19" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L19" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M19" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N19" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O19" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P19" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R19" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S19" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T19" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H20" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I20" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J20" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K20" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L20" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M20" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N20" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P20" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q20" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R20" t="n">
-        <v>65.85829705115658</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S20" t="n">
-        <v>23.89104641001701</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T20" t="n">
-        <v>4.589492294453073</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H21" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I21" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J21" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K21" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L21" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
@@ -32566,25 +32566,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q21" t="n">
-        <v>71.60583214932356</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R21" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S21" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T21" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H22" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I22" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J22" t="n">
-        <v>33.24940237062825</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K22" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L22" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M22" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N22" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O22" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P22" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R22" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S22" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T22" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H23" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I23" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J23" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K23" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L23" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M23" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N23" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P23" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q23" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R23" t="n">
-        <v>65.85829705115658</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S23" t="n">
-        <v>23.89104641001701</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T23" t="n">
-        <v>4.589492294453073</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U23" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H24" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I24" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J24" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K24" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L24" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
@@ -32803,25 +32803,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q24" t="n">
-        <v>71.60583214932356</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R24" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S24" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T24" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H25" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I25" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J25" t="n">
-        <v>33.24940237062825</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K25" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L25" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M25" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N25" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O25" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P25" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R25" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S25" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T25" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H26" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I26" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J26" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K26" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L26" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M26" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N26" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P26" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R26" t="n">
-        <v>65.85829705115658</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S26" t="n">
-        <v>23.89104641001701</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T26" t="n">
-        <v>4.589492294453073</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H27" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I27" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J27" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K27" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L27" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
@@ -33040,25 +33040,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q27" t="n">
-        <v>71.60583214932356</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R27" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S27" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T27" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H28" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I28" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J28" t="n">
-        <v>33.24940237062825</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K28" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L28" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M28" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N28" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O28" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P28" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R28" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S28" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T28" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H29" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I29" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J29" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K29" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L29" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M29" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N29" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P29" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q29" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R29" t="n">
-        <v>65.85829705115658</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S29" t="n">
-        <v>23.89104641001701</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T29" t="n">
-        <v>4.589492294453073</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H30" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I30" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J30" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K30" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L30" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
@@ -33277,25 +33277,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q30" t="n">
-        <v>71.60583214932356</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R30" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S30" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T30" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H31" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I31" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J31" t="n">
-        <v>33.24940237062825</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K31" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L31" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M31" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N31" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O31" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P31" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R31" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S31" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T31" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H32" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I32" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J32" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K32" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L32" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M32" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N32" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P32" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q32" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R32" t="n">
-        <v>65.85829705115658</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S32" t="n">
-        <v>23.89104641001701</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T32" t="n">
-        <v>4.589492294453073</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H33" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I33" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J33" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K33" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L33" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
@@ -33514,25 +33514,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q33" t="n">
-        <v>71.60583214932356</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R33" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S33" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T33" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H34" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I34" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J34" t="n">
-        <v>33.24940237062825</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K34" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L34" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M34" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N34" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O34" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P34" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R34" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S34" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T34" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H35" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I35" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J35" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K35" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L35" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M35" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N35" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P35" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q35" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R35" t="n">
-        <v>65.85829705115658</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S35" t="n">
-        <v>23.89104641001701</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T35" t="n">
-        <v>4.589492294453073</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H36" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I36" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J36" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K36" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L36" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
@@ -33751,25 +33751,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.60583214932356</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R36" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S36" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T36" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H37" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I37" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J37" t="n">
-        <v>33.24940237062825</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K37" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L37" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M37" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N37" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O37" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P37" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R37" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S37" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T37" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H38" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I38" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J38" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K38" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L38" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M38" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N38" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P38" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q38" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R38" t="n">
-        <v>65.85829705115658</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S38" t="n">
-        <v>23.89104641001701</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T38" t="n">
-        <v>4.589492294453073</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U38" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H39" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I39" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J39" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K39" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L39" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
@@ -33988,25 +33988,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q39" t="n">
-        <v>71.60583214932356</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R39" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S39" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T39" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H40" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I40" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J40" t="n">
-        <v>33.24940237062825</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K40" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L40" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M40" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N40" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O40" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P40" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R40" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S40" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T40" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H41" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I41" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J41" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K41" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L41" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M41" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N41" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P41" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q41" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R41" t="n">
-        <v>65.85829705115658</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S41" t="n">
-        <v>23.89104641001701</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T41" t="n">
-        <v>4.589492294453073</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H42" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I42" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J42" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K42" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L42" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
@@ -34225,25 +34225,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q42" t="n">
-        <v>71.60583214932356</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R42" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S42" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T42" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H43" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I43" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J43" t="n">
-        <v>33.24940237062825</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K43" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L43" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M43" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N43" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O43" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P43" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R43" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S43" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T43" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.192652628391256</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H44" t="n">
-        <v>12.21425373051196</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I44" t="n">
-        <v>45.97974045605395</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J44" t="n">
-        <v>101.2249010189225</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K44" t="n">
-        <v>151.7098867787244</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L44" t="n">
-        <v>188.2095296548534</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M44" t="n">
-        <v>209.4193658350063</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N44" t="n">
-        <v>212.8079901154231</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>200.9485505418575</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P44" t="n">
-        <v>171.5049387784483</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q44" t="n">
-        <v>128.7930665241864</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R44" t="n">
-        <v>74.91796566818232</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S44" t="n">
-        <v>27.17757176946578</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T44" t="n">
-        <v>5.220836880782727</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U44" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.638125413388775</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H45" t="n">
-        <v>6.162948071412645</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I45" t="n">
-        <v>21.97054603114862</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J45" t="n">
-        <v>60.28885758687547</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K45" t="n">
-        <v>103.0432602839234</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34465,22 +34465,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>121.8539660005285</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q45" t="n">
-        <v>81.45614925994261</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R45" t="n">
-        <v>39.61975154355923</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S45" t="n">
-        <v>11.85289967412921</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T45" t="n">
-        <v>2.572093223264404</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H46" t="n">
-        <v>4.756484423007447</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I46" t="n">
-        <v>16.08839516493725</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J46" t="n">
-        <v>37.82329177681891</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K46" t="n">
-        <v>62.15528724543468</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L46" t="n">
-        <v>79.5373683577339</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M46" t="n">
-        <v>83.86100297128563</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N46" t="n">
-        <v>81.86697575918646</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O46" t="n">
-        <v>75.61740266760712</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P46" t="n">
-        <v>64.70375129211759</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q46" t="n">
-        <v>44.79752353816112</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R46" t="n">
-        <v>24.05477705132394</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S46" t="n">
-        <v>9.3232930868152</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T46" t="n">
-        <v>2.28583607240644</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_8.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-228465.3781192472</v>
+        <v>-96413.5719303496</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25068872.22687886</v>
+        <v>26027291.21166012</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2564438.120467269</v>
+        <v>2134766.308900061</v>
       </c>
     </row>
     <row r="11">
@@ -23272,49 +23272,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.0170240739369</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H11" t="n">
-        <v>326.3074893360965</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I11" t="n">
-        <v>160.9084221286138</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J11" t="n">
-        <v>71.92258334679383</v>
+        <v>92.06191329280011</v>
       </c>
       <c r="K11" t="n">
-        <v>56.54227989916996</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L11" t="n">
-        <v>32.8711910981084</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M11" t="n">
-        <v>4.586202945486093</v>
+        <v>46.25150133729363</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O11" t="n">
-        <v>13.46996085601003</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P11" t="n">
-        <v>46.34579576917247</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q11" t="n">
-        <v>83.46310250126157</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R11" t="n">
-        <v>134.8218408634681</v>
+        <v>149.7272407629755</v>
       </c>
       <c r="S11" t="n">
-        <v>179.7218745449422</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4676389752864</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23351,22 +23351,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6555998253092</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5916109993956</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I12" t="n">
-        <v>75.83750674330533</v>
+        <v>80.20868489375378</v>
       </c>
       <c r="J12" t="n">
-        <v>61.84452414151257</v>
+        <v>73.83937108913167</v>
       </c>
       <c r="K12" t="n">
-        <v>26.75787480980772</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -23375,25 +23375,25 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P12" t="n">
-        <v>2.612367688219109</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.16972933916271</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R12" t="n">
-        <v>102.9682853879423</v>
+        <v>110.8508838462542</v>
       </c>
       <c r="S12" t="n">
-        <v>158.905408270449</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T12" t="n">
-        <v>197.3919390740697</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8961243613761</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23430,49 +23430,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4142525710033</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0995470698808</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I13" t="n">
-        <v>138.1067275372333</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J13" t="n">
-        <v>86.2208375662932</v>
+        <v>93.74601906876785</v>
       </c>
       <c r="K13" t="n">
-        <v>62.00809140979796</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L13" t="n">
-        <v>49.14113189899257</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M13" t="n">
-        <v>48.52123852856002</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N13" t="n">
-        <v>39.43061707215854</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O13" t="n">
-        <v>56.93882853040725</v>
+        <v>71.98338581476828</v>
       </c>
       <c r="P13" t="n">
-        <v>67.97552059180406</v>
+        <v>80.84873837615825</v>
       </c>
       <c r="Q13" t="n">
-        <v>103.2119976362414</v>
+        <v>112.1247463593087</v>
       </c>
       <c r="R13" t="n">
-        <v>151.3616578248528</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S13" t="n">
-        <v>213.9658230228616</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T13" t="n">
-        <v>225.481393154608</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23509,49 +23509,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.0170240739369</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H14" t="n">
-        <v>326.3074893360965</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I14" t="n">
-        <v>160.9084221286138</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J14" t="n">
-        <v>71.92258334679381</v>
+        <v>92.06191329280011</v>
       </c>
       <c r="K14" t="n">
-        <v>56.54227989916993</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L14" t="n">
-        <v>32.87119109810837</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M14" t="n">
-        <v>4.586202945486093</v>
+        <v>46.25150133729363</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46996085601</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P14" t="n">
-        <v>46.34579576917244</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.46310250126155</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R14" t="n">
-        <v>134.8218408634681</v>
+        <v>149.7272407629755</v>
       </c>
       <c r="S14" t="n">
-        <v>179.7218745449422</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4676389752864</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23588,22 +23588,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6555998253092</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5916109993956</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I15" t="n">
-        <v>75.83750674330533</v>
+        <v>80.20868489375378</v>
       </c>
       <c r="J15" t="n">
-        <v>61.84452414151257</v>
+        <v>73.83937108913167</v>
       </c>
       <c r="K15" t="n">
-        <v>26.7578748098077</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -23612,25 +23612,25 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P15" t="n">
-        <v>2.612367688219081</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.1697293391627</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R15" t="n">
-        <v>102.9682853879423</v>
+        <v>110.8508838462542</v>
       </c>
       <c r="S15" t="n">
-        <v>158.905408270449</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T15" t="n">
-        <v>197.3919390740697</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8961243613761</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23667,49 +23667,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4142525710033</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0995470698808</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I16" t="n">
-        <v>138.1067275372333</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J16" t="n">
-        <v>86.2208375662932</v>
+        <v>93.74601906876785</v>
       </c>
       <c r="K16" t="n">
-        <v>62.00809140979794</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L16" t="n">
-        <v>49.14113189899255</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M16" t="n">
-        <v>48.52123852856</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N16" t="n">
-        <v>39.43061707215853</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O16" t="n">
-        <v>56.93882853040725</v>
+        <v>71.98338581476828</v>
       </c>
       <c r="P16" t="n">
-        <v>67.97552059180406</v>
+        <v>80.84873837615825</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.2119976362414</v>
+        <v>112.1247463593087</v>
       </c>
       <c r="R16" t="n">
-        <v>151.3616578248528</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S16" t="n">
-        <v>213.9658230228616</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T16" t="n">
-        <v>225.481393154608</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23746,49 +23746,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.0170240739369</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H17" t="n">
-        <v>326.3074893360965</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I17" t="n">
-        <v>160.9084221286138</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J17" t="n">
-        <v>71.92258334679381</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K17" t="n">
-        <v>56.54227989916993</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L17" t="n">
-        <v>32.87119109810837</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M17" t="n">
-        <v>4.586202945486093</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O17" t="n">
-        <v>13.46996085601</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P17" t="n">
-        <v>46.34579576917244</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.46310250126155</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R17" t="n">
-        <v>134.8218408634681</v>
+        <v>149.7272407629756</v>
       </c>
       <c r="S17" t="n">
-        <v>179.7218745449422</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4676389752864</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23825,22 +23825,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6555998253092</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5916109993956</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I18" t="n">
-        <v>75.83750674330533</v>
+        <v>80.20868489375378</v>
       </c>
       <c r="J18" t="n">
-        <v>61.84452414151257</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K18" t="n">
-        <v>26.7578748098077</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -23849,25 +23849,25 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P18" t="n">
-        <v>2.612367688219081</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.1697293391627</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R18" t="n">
-        <v>102.9682853879423</v>
+        <v>110.8508838462542</v>
       </c>
       <c r="S18" t="n">
-        <v>158.905408270449</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3919390740697</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8961243613761</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23904,49 +23904,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4142525710033</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0995470698808</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I19" t="n">
-        <v>138.1067275372333</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J19" t="n">
-        <v>86.2208375662932</v>
+        <v>93.74601906876785</v>
       </c>
       <c r="K19" t="n">
-        <v>62.00809140979794</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L19" t="n">
-        <v>49.14113189899255</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M19" t="n">
-        <v>48.52123852856</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N19" t="n">
-        <v>39.43061707215853</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O19" t="n">
-        <v>56.93882853040725</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P19" t="n">
-        <v>67.97552059180406</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q19" t="n">
-        <v>103.2119976362414</v>
+        <v>112.1247463593087</v>
       </c>
       <c r="R19" t="n">
-        <v>151.3616578248528</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S19" t="n">
-        <v>213.9658230228616</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T19" t="n">
-        <v>225.481393154608</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23983,49 +23983,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.0170240739369</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H20" t="n">
-        <v>326.3074893360965</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I20" t="n">
-        <v>160.9084221286138</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J20" t="n">
-        <v>71.92258334679381</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K20" t="n">
-        <v>56.54227989916993</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L20" t="n">
-        <v>32.87119109810837</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M20" t="n">
-        <v>4.586202945486093</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O20" t="n">
-        <v>13.46996085601</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P20" t="n">
-        <v>46.34579576917244</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q20" t="n">
-        <v>83.46310250126155</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R20" t="n">
-        <v>134.8218408634681</v>
+        <v>149.7272407629756</v>
       </c>
       <c r="S20" t="n">
-        <v>179.7218745449422</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4676389752864</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24062,22 +24062,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6555998253092</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5916109993956</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I21" t="n">
-        <v>75.83750674330533</v>
+        <v>80.20868489375378</v>
       </c>
       <c r="J21" t="n">
-        <v>61.84452414151257</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K21" t="n">
-        <v>26.7578748098077</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -24086,25 +24086,25 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P21" t="n">
-        <v>2.612367688219081</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q21" t="n">
-        <v>52.1697293391627</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R21" t="n">
-        <v>102.9682853879423</v>
+        <v>110.8508838462542</v>
       </c>
       <c r="S21" t="n">
-        <v>158.905408270449</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T21" t="n">
-        <v>197.3919390740697</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8961243613761</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24141,49 +24141,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4142525710033</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0995470698808</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I22" t="n">
-        <v>138.1067275372333</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J22" t="n">
-        <v>86.2208375662932</v>
+        <v>93.74601906876785</v>
       </c>
       <c r="K22" t="n">
-        <v>62.00809140979794</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L22" t="n">
-        <v>49.14113189899255</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M22" t="n">
-        <v>48.52123852856</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N22" t="n">
-        <v>39.43061707215853</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O22" t="n">
-        <v>56.93882853040725</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P22" t="n">
-        <v>67.97552059180406</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q22" t="n">
-        <v>103.2119976362414</v>
+        <v>112.1247463593087</v>
       </c>
       <c r="R22" t="n">
-        <v>151.3616578248528</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S22" t="n">
-        <v>213.9658230228616</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T22" t="n">
-        <v>225.481393154608</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24220,49 +24220,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.0170240739369</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H23" t="n">
-        <v>326.3074893360965</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I23" t="n">
-        <v>160.9084221286138</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J23" t="n">
-        <v>71.92258334679381</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K23" t="n">
-        <v>56.54227989916993</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L23" t="n">
-        <v>32.87119109810837</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M23" t="n">
-        <v>4.586202945486093</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O23" t="n">
-        <v>13.46996085601</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P23" t="n">
-        <v>46.34579576917244</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q23" t="n">
-        <v>83.46310250126155</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R23" t="n">
-        <v>134.8218408634681</v>
+        <v>149.7272407629756</v>
       </c>
       <c r="S23" t="n">
-        <v>179.7218745449422</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4676389752864</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24299,22 +24299,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6555998253092</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5916109993956</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I24" t="n">
-        <v>75.83750674330533</v>
+        <v>80.20868489375378</v>
       </c>
       <c r="J24" t="n">
-        <v>61.84452414151257</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K24" t="n">
-        <v>26.7578748098077</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -24323,25 +24323,25 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P24" t="n">
-        <v>2.612367688219081</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q24" t="n">
-        <v>52.1697293391627</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R24" t="n">
-        <v>102.9682853879423</v>
+        <v>110.8508838462542</v>
       </c>
       <c r="S24" t="n">
-        <v>158.905408270449</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T24" t="n">
-        <v>197.3919390740697</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8961243613761</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24378,49 +24378,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4142525710033</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0995470698808</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I25" t="n">
-        <v>138.1067275372333</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J25" t="n">
-        <v>86.2208375662932</v>
+        <v>93.74601906876785</v>
       </c>
       <c r="K25" t="n">
-        <v>62.00809140979794</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L25" t="n">
-        <v>49.14113189899255</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M25" t="n">
-        <v>48.52123852856</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N25" t="n">
-        <v>39.43061707215853</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O25" t="n">
-        <v>56.93882853040725</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P25" t="n">
-        <v>67.97552059180406</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q25" t="n">
-        <v>103.2119976362414</v>
+        <v>112.1247463593087</v>
       </c>
       <c r="R25" t="n">
-        <v>151.3616578248528</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S25" t="n">
-        <v>213.9658230228616</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T25" t="n">
-        <v>225.481393154608</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24457,49 +24457,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.0170240739369</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H26" t="n">
-        <v>326.3074893360965</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I26" t="n">
-        <v>160.9084221286138</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J26" t="n">
-        <v>71.92258334679381</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K26" t="n">
-        <v>56.54227989916993</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L26" t="n">
-        <v>32.87119109810837</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M26" t="n">
-        <v>4.586202945486093</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O26" t="n">
-        <v>13.46996085601</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P26" t="n">
-        <v>46.34579576917244</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q26" t="n">
-        <v>83.46310250126155</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R26" t="n">
-        <v>134.8218408634681</v>
+        <v>149.7272407629756</v>
       </c>
       <c r="S26" t="n">
-        <v>179.7218745449422</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4676389752864</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24536,22 +24536,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6555998253092</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5916109993956</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I27" t="n">
-        <v>75.83750674330533</v>
+        <v>80.20868489375378</v>
       </c>
       <c r="J27" t="n">
-        <v>61.84452414151257</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K27" t="n">
-        <v>26.7578748098077</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -24560,25 +24560,25 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P27" t="n">
-        <v>2.612367688219081</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q27" t="n">
-        <v>52.1697293391627</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R27" t="n">
-        <v>102.9682853879423</v>
+        <v>110.8508838462542</v>
       </c>
       <c r="S27" t="n">
-        <v>158.905408270449</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T27" t="n">
-        <v>197.3919390740697</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8961243613761</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24615,49 +24615,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4142525710033</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H28" t="n">
-        <v>157.0995470698808</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I28" t="n">
-        <v>138.1067275372333</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J28" t="n">
-        <v>86.2208375662932</v>
+        <v>93.74601906876785</v>
       </c>
       <c r="K28" t="n">
-        <v>62.00809140979794</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L28" t="n">
-        <v>49.14113189899255</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M28" t="n">
-        <v>48.52123852856</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N28" t="n">
-        <v>39.43061707215853</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O28" t="n">
-        <v>56.93882853040725</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P28" t="n">
-        <v>67.97552059180406</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q28" t="n">
-        <v>103.2119976362414</v>
+        <v>112.1247463593087</v>
       </c>
       <c r="R28" t="n">
-        <v>151.3616578248528</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S28" t="n">
-        <v>213.9658230228616</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T28" t="n">
-        <v>225.481393154608</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24694,49 +24694,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.0170240739369</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H29" t="n">
-        <v>326.3074893360965</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I29" t="n">
-        <v>160.9084221286138</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J29" t="n">
-        <v>71.92258334679383</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K29" t="n">
-        <v>56.54227989916996</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L29" t="n">
-        <v>32.8711910981084</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M29" t="n">
-        <v>4.586202945486093</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O29" t="n">
-        <v>13.46996085601003</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P29" t="n">
-        <v>46.34579576917247</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.46310250126157</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R29" t="n">
-        <v>134.8218408634681</v>
+        <v>149.7272407629756</v>
       </c>
       <c r="S29" t="n">
-        <v>179.7218745449422</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4676389752864</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24773,22 +24773,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6555998253092</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5916109993956</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I30" t="n">
-        <v>75.83750674330533</v>
+        <v>80.20868489375378</v>
       </c>
       <c r="J30" t="n">
-        <v>61.84452414151257</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K30" t="n">
-        <v>26.75787480980772</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -24797,25 +24797,25 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P30" t="n">
-        <v>2.612367688219109</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.16972933916271</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R30" t="n">
-        <v>102.9682853879423</v>
+        <v>110.8508838462542</v>
       </c>
       <c r="S30" t="n">
-        <v>158.905408270449</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T30" t="n">
-        <v>197.3919390740697</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8961243613761</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24852,49 +24852,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4142525710033</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0995470698808</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I31" t="n">
-        <v>138.1067275372333</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J31" t="n">
-        <v>86.2208375662932</v>
+        <v>93.74601906876785</v>
       </c>
       <c r="K31" t="n">
-        <v>62.00809140979796</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L31" t="n">
-        <v>49.14113189899257</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M31" t="n">
-        <v>48.52123852856002</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N31" t="n">
-        <v>39.43061707215854</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O31" t="n">
-        <v>56.93882853040725</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P31" t="n">
-        <v>67.97552059180406</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q31" t="n">
-        <v>103.2119976362414</v>
+        <v>112.1247463593087</v>
       </c>
       <c r="R31" t="n">
-        <v>151.3616578248528</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S31" t="n">
-        <v>213.9658230228616</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T31" t="n">
-        <v>225.481393154608</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24931,49 +24931,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.0170240739369</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H32" t="n">
-        <v>326.3074893360965</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I32" t="n">
-        <v>160.9084221286138</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J32" t="n">
-        <v>71.92258334679381</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K32" t="n">
-        <v>56.54227989916993</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L32" t="n">
-        <v>32.87119109810837</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M32" t="n">
-        <v>4.586202945486093</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O32" t="n">
-        <v>13.46996085601</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P32" t="n">
-        <v>46.34579576917244</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.46310250126155</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R32" t="n">
-        <v>134.8218408634681</v>
+        <v>149.7272407629756</v>
       </c>
       <c r="S32" t="n">
-        <v>179.7218745449422</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4676389752864</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25010,22 +25010,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6555998253092</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5916109993956</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I33" t="n">
-        <v>75.83750674330533</v>
+        <v>80.20868489375378</v>
       </c>
       <c r="J33" t="n">
-        <v>61.84452414151257</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K33" t="n">
-        <v>26.7578748098077</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -25034,25 +25034,25 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P33" t="n">
-        <v>2.612367688219081</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q33" t="n">
-        <v>52.1697293391627</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R33" t="n">
-        <v>102.9682853879423</v>
+        <v>110.8508838462542</v>
       </c>
       <c r="S33" t="n">
-        <v>158.905408270449</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T33" t="n">
-        <v>197.3919390740697</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8961243613761</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25089,49 +25089,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4142525710033</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H34" t="n">
-        <v>157.0995470698808</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I34" t="n">
-        <v>138.1067275372333</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J34" t="n">
-        <v>86.2208375662932</v>
+        <v>93.74601906876785</v>
       </c>
       <c r="K34" t="n">
-        <v>62.00809140979794</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L34" t="n">
-        <v>49.14113189899255</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M34" t="n">
-        <v>48.52123852856</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N34" t="n">
-        <v>39.43061707215853</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O34" t="n">
-        <v>56.93882853040725</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P34" t="n">
-        <v>67.97552059180406</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q34" t="n">
-        <v>103.2119976362414</v>
+        <v>112.1247463593087</v>
       </c>
       <c r="R34" t="n">
-        <v>151.3616578248528</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S34" t="n">
-        <v>213.9658230228616</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T34" t="n">
-        <v>225.481393154608</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25168,49 +25168,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.0170240739369</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H35" t="n">
-        <v>326.3074893360965</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I35" t="n">
-        <v>160.9084221286138</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J35" t="n">
-        <v>71.92258334679381</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K35" t="n">
-        <v>56.54227989916993</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L35" t="n">
-        <v>32.87119109810837</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M35" t="n">
-        <v>4.586202945486093</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O35" t="n">
-        <v>13.46996085601</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P35" t="n">
-        <v>46.34579576917244</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q35" t="n">
-        <v>83.46310250126155</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R35" t="n">
-        <v>134.8218408634681</v>
+        <v>149.7272407629756</v>
       </c>
       <c r="S35" t="n">
-        <v>179.7218745449422</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4676389752864</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25247,22 +25247,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6555998253092</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5916109993956</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I36" t="n">
-        <v>75.83750674330533</v>
+        <v>80.20868489375378</v>
       </c>
       <c r="J36" t="n">
-        <v>61.84452414151257</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K36" t="n">
-        <v>26.7578748098077</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -25271,25 +25271,25 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P36" t="n">
-        <v>2.612367688219081</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.1697293391627</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R36" t="n">
-        <v>102.9682853879423</v>
+        <v>110.8508838462542</v>
       </c>
       <c r="S36" t="n">
-        <v>158.905408270449</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T36" t="n">
-        <v>197.3919390740697</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8961243613761</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25326,49 +25326,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4142525710033</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H37" t="n">
-        <v>157.0995470698808</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I37" t="n">
-        <v>138.1067275372333</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J37" t="n">
-        <v>86.2208375662932</v>
+        <v>93.74601906876785</v>
       </c>
       <c r="K37" t="n">
-        <v>62.00809140979794</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L37" t="n">
-        <v>49.14113189899255</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M37" t="n">
-        <v>48.52123852856</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N37" t="n">
-        <v>39.43061707215853</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O37" t="n">
-        <v>56.93882853040725</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P37" t="n">
-        <v>67.97552059180406</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q37" t="n">
-        <v>103.2119976362414</v>
+        <v>112.1247463593087</v>
       </c>
       <c r="R37" t="n">
-        <v>151.3616578248528</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S37" t="n">
-        <v>213.9658230228616</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T37" t="n">
-        <v>225.481393154608</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25405,49 +25405,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.0170240739369</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H38" t="n">
-        <v>326.3074893360965</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I38" t="n">
-        <v>160.9084221286138</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J38" t="n">
-        <v>71.92258334679381</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K38" t="n">
-        <v>56.54227989916993</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L38" t="n">
-        <v>32.87119109810837</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M38" t="n">
-        <v>4.586202945486093</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O38" t="n">
-        <v>13.46996085601</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P38" t="n">
-        <v>46.34579576917244</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q38" t="n">
-        <v>83.46310250126155</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R38" t="n">
-        <v>134.8218408634681</v>
+        <v>149.7272407629756</v>
       </c>
       <c r="S38" t="n">
-        <v>179.7218745449422</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4676389752864</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25484,22 +25484,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6555998253092</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5916109993956</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I39" t="n">
-        <v>75.83750674330533</v>
+        <v>80.20868489375378</v>
       </c>
       <c r="J39" t="n">
-        <v>61.84452414151257</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K39" t="n">
-        <v>26.7578748098077</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -25508,25 +25508,25 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P39" t="n">
-        <v>2.612367688219081</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q39" t="n">
-        <v>52.1697293391627</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R39" t="n">
-        <v>102.9682853879423</v>
+        <v>110.8508838462542</v>
       </c>
       <c r="S39" t="n">
-        <v>158.905408270449</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T39" t="n">
-        <v>197.3919390740697</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8961243613761</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25563,49 +25563,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4142525710033</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0995470698808</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I40" t="n">
-        <v>138.1067275372333</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J40" t="n">
-        <v>86.2208375662932</v>
+        <v>93.74601906876785</v>
       </c>
       <c r="K40" t="n">
-        <v>62.00809140979794</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L40" t="n">
-        <v>49.14113189899255</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M40" t="n">
-        <v>48.52123852856</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N40" t="n">
-        <v>39.43061707215853</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O40" t="n">
-        <v>56.93882853040725</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P40" t="n">
-        <v>67.97552059180406</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q40" t="n">
-        <v>103.2119976362414</v>
+        <v>112.1247463593087</v>
       </c>
       <c r="R40" t="n">
-        <v>151.3616578248528</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S40" t="n">
-        <v>213.9658230228616</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T40" t="n">
-        <v>225.481393154608</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25642,49 +25642,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.0170240739369</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H41" t="n">
-        <v>326.3074893360965</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I41" t="n">
-        <v>160.9084221286138</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679381</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916993</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L41" t="n">
-        <v>32.87119109810837</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M41" t="n">
-        <v>4.586202945486093</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917244</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126155</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R41" t="n">
-        <v>134.8218408634681</v>
+        <v>149.7272407629756</v>
       </c>
       <c r="S41" t="n">
-        <v>179.7218745449422</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4676389752864</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25721,22 +25721,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6555998253092</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5916109993956</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I42" t="n">
-        <v>75.83750674330533</v>
+        <v>80.20868489375378</v>
       </c>
       <c r="J42" t="n">
-        <v>61.84452414151257</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K42" t="n">
-        <v>26.7578748098077</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -25745,25 +25745,25 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219081</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.1697293391627</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R42" t="n">
-        <v>102.9682853879423</v>
+        <v>110.8508838462542</v>
       </c>
       <c r="S42" t="n">
-        <v>158.905408270449</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T42" t="n">
-        <v>197.3919390740697</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8961243613761</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25800,49 +25800,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4142525710033</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0995470698808</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I43" t="n">
-        <v>138.1067275372333</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J43" t="n">
-        <v>86.2208375662932</v>
+        <v>93.74601906876785</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979794</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899255</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215853</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O43" t="n">
-        <v>56.93882853040725</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P43" t="n">
-        <v>67.97552059180406</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q43" t="n">
-        <v>103.2119976362414</v>
+        <v>112.1247463593087</v>
       </c>
       <c r="R43" t="n">
-        <v>151.3616578248528</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S43" t="n">
-        <v>213.9658230228616</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T43" t="n">
-        <v>225.481393154608</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25879,49 +25879,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.0170240739369</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H44" t="n">
-        <v>326.3074893360965</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I44" t="n">
-        <v>160.9084221286138</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679381</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K44" t="n">
-        <v>56.54227989916993</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L44" t="n">
-        <v>32.87119109810837</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M44" t="n">
-        <v>4.586202945486093</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P44" t="n">
-        <v>46.34579576917244</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.46310250126155</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R44" t="n">
-        <v>134.8218408634681</v>
+        <v>149.7272407629756</v>
       </c>
       <c r="S44" t="n">
-        <v>179.7218745449422</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4676389752864</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25958,22 +25958,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6555998253092</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5916109993956</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I45" t="n">
-        <v>75.83750674330533</v>
+        <v>80.20868489375378</v>
       </c>
       <c r="J45" t="n">
-        <v>61.84452414151257</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K45" t="n">
-        <v>26.7578748098077</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -25982,25 +25982,25 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P45" t="n">
-        <v>2.612367688219081</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.1697293391627</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R45" t="n">
-        <v>102.9682853879423</v>
+        <v>110.8508838462542</v>
       </c>
       <c r="S45" t="n">
-        <v>158.905408270449</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T45" t="n">
-        <v>197.3919390740697</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8961243613761</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26037,49 +26037,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4142525710033</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0995470698808</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I46" t="n">
-        <v>138.1067275372333</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J46" t="n">
-        <v>86.2208375662932</v>
+        <v>93.74601906876785</v>
       </c>
       <c r="K46" t="n">
-        <v>62.00809140979794</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L46" t="n">
-        <v>49.14113189899255</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M46" t="n">
-        <v>48.52123852856</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N46" t="n">
-        <v>39.43061707215853</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O46" t="n">
-        <v>56.93882853040725</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97552059180406</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q46" t="n">
-        <v>103.2119976362414</v>
+        <v>112.1247463593087</v>
       </c>
       <c r="R46" t="n">
-        <v>151.3616578248528</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S46" t="n">
-        <v>213.9658230228616</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T46" t="n">
-        <v>225.481393154608</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>295543.3640566414</v>
+        <v>246025.0498429431</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>295543.3640566414</v>
+        <v>246025.0498429431</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>295543.3640566414</v>
+        <v>246025.0498429431</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>295543.3640566414</v>
+        <v>246025.0498429431</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>295543.3640566414</v>
+        <v>246025.0498429431</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>295543.3640566414</v>
+        <v>246025.0498429431</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>295543.3640566414</v>
+        <v>246025.0498429431</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>295543.3640566414</v>
+        <v>246025.0498429431</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>295543.3640566414</v>
+        <v>246025.0498429431</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>295543.3640566414</v>
+        <v>246025.0498429431</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>295543.3640566414</v>
+        <v>246025.0498429431</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>295543.3640566414</v>
+        <v>246025.0498429431</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38134.62762021181</v>
+        <v>31745.1677216701</v>
       </c>
       <c r="F2" t="n">
-        <v>38134.62762021181</v>
+        <v>31745.1677216701</v>
       </c>
       <c r="G2" t="n">
-        <v>38134.62762021181</v>
+        <v>31745.16772167009</v>
       </c>
       <c r="H2" t="n">
-        <v>38134.62762021182</v>
+        <v>31745.16772167009</v>
       </c>
       <c r="I2" t="n">
-        <v>38134.62762021181</v>
+        <v>31745.16772167009</v>
       </c>
       <c r="J2" t="n">
-        <v>38134.62762021181</v>
+        <v>31745.16772167009</v>
       </c>
       <c r="K2" t="n">
-        <v>38134.62762021181</v>
+        <v>31745.16772167009</v>
       </c>
       <c r="L2" t="n">
-        <v>38134.62762021181</v>
+        <v>31745.16772167009</v>
       </c>
       <c r="M2" t="n">
-        <v>38134.62762021181</v>
+        <v>31745.16772167009</v>
       </c>
       <c r="N2" t="n">
-        <v>38134.62762021181</v>
+        <v>31745.16772167009</v>
       </c>
       <c r="O2" t="n">
-        <v>38134.62762021181</v>
+        <v>31745.16772167009</v>
       </c>
       <c r="P2" t="n">
-        <v>38134.62762021181</v>
+        <v>31745.16772167009</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>256945.3264049829</v>
+        <v>209524.6041377088</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>6972.102563257328</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="F5" t="n">
-        <v>6972.10256325733</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="G5" t="n">
-        <v>6972.10256325733</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="H5" t="n">
-        <v>6972.10256325733</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="I5" t="n">
-        <v>6972.10256325733</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="J5" t="n">
-        <v>6972.10256325733</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="K5" t="n">
-        <v>6972.102563257328</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="L5" t="n">
-        <v>6972.10256325733</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="M5" t="n">
-        <v>6972.10256325733</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="N5" t="n">
-        <v>6972.10256325733</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="O5" t="n">
-        <v>6972.10256325733</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="P5" t="n">
-        <v>6972.10256325733</v>
+        <v>5685.361356880733</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54153.64424660708</v>
+        <v>-35680.2044246607</v>
       </c>
       <c r="C6" t="n">
-        <v>-54153.64424660708</v>
+        <v>-35680.2044246607</v>
       </c>
       <c r="D6" t="n">
-        <v>-54153.64424660708</v>
+        <v>-35680.2044246607</v>
       </c>
       <c r="E6" t="n">
-        <v>-241542.0171421091</v>
+        <v>-185120.5876010593</v>
       </c>
       <c r="F6" t="n">
-        <v>15403.30926287387</v>
+        <v>24404.01653664953</v>
       </c>
       <c r="G6" t="n">
-        <v>15403.30926287387</v>
+        <v>24404.01653664952</v>
       </c>
       <c r="H6" t="n">
-        <v>15403.30926287388</v>
+        <v>24404.01653664952</v>
       </c>
       <c r="I6" t="n">
-        <v>15403.30926287387</v>
+        <v>24404.01653664952</v>
       </c>
       <c r="J6" t="n">
-        <v>15403.30926287387</v>
+        <v>24404.01653664952</v>
       </c>
       <c r="K6" t="n">
-        <v>15403.30926287387</v>
+        <v>24404.01653664952</v>
       </c>
       <c r="L6" t="n">
-        <v>15403.30926287387</v>
+        <v>24404.01653664952</v>
       </c>
       <c r="M6" t="n">
-        <v>15403.30926287387</v>
+        <v>24404.01653664952</v>
       </c>
       <c r="N6" t="n">
-        <v>15403.30926287387</v>
+        <v>24404.01653664952</v>
       </c>
       <c r="O6" t="n">
-        <v>15403.30926287387</v>
+        <v>24404.01653664952</v>
       </c>
       <c r="P6" t="n">
-        <v>15403.30926287387</v>
+        <v>24404.01653664952</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>319.8212184980426</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="F3" t="n">
-        <v>319.8212184980426</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="G3" t="n">
-        <v>319.8212184980426</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="H3" t="n">
-        <v>319.8212184980426</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="I3" t="n">
-        <v>319.8212184980426</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="J3" t="n">
-        <v>319.8212184980426</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="K3" t="n">
-        <v>319.8212184980426</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="L3" t="n">
-        <v>319.8212184980426</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8212184980426</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8212184980426</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="O3" t="n">
-        <v>319.8212184980426</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="P3" t="n">
-        <v>319.8212184980426</v>
+        <v>260.7963925174648</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>319.8212184980426</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.28571344119816</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H11" t="n">
-        <v>13.16731277967066</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I11" t="n">
-        <v>49.56746744179212</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J11" t="n">
-        <v>109.1233211798925</v>
+        <v>88.98399123388617</v>
       </c>
       <c r="K11" t="n">
-        <v>163.5475711458106</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L11" t="n">
-        <v>202.8952238718788</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M11" t="n">
-        <v>225.7600302817866</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O11" t="n">
-        <v>216.6282505656767</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P11" t="n">
-        <v>184.8871999860971</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q11" t="n">
-        <v>138.8425873731879</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R11" t="n">
-        <v>80.76369695066401</v>
+        <v>65.8582970511566</v>
       </c>
       <c r="S11" t="n">
-        <v>29.29819504130311</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T11" t="n">
-        <v>5.62821058884495</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.08387421668903385</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H12" t="n">
-        <v>6.643833237100848</v>
+        <v>5.417676003051488</v>
       </c>
       <c r="I12" t="n">
-        <v>23.68487325669467</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J12" t="n">
-        <v>64.99310252515413</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K12" t="n">
-        <v>111.0835641645513</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
@@ -31855,25 +31855,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P12" t="n">
-        <v>131.3620397261111</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.8120447468588</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R12" t="n">
-        <v>42.71121857602163</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S12" t="n">
-        <v>12.77776283338877</v>
+        <v>10.41955398407041</v>
       </c>
       <c r="T12" t="n">
-        <v>2.772789620751897</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H13" t="n">
-        <v>5.127625437558785</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I13" t="n">
-        <v>17.343747390025</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J13" t="n">
-        <v>40.77458387310291</v>
+        <v>33.24940237062826</v>
       </c>
       <c r="K13" t="n">
-        <v>67.00516676073742</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L13" t="n">
-        <v>85.74354438224572</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M13" t="n">
-        <v>90.40454541904504</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N13" t="n">
-        <v>88.25492739307465</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O13" t="n">
-        <v>81.51770992143554</v>
+        <v>66.47315263707451</v>
       </c>
       <c r="P13" t="n">
-        <v>69.75248345734356</v>
+        <v>56.87926567298936</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.29300399320443</v>
+        <v>39.38025527013719</v>
       </c>
       <c r="R13" t="n">
-        <v>25.93173355231669</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S13" t="n">
-        <v>10.05077501411061</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T13" t="n">
-        <v>2.464196273673442</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.28571344119816</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H14" t="n">
-        <v>13.16731277967066</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I14" t="n">
-        <v>49.56746744179213</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J14" t="n">
-        <v>109.1233211798925</v>
+        <v>88.98399123388617</v>
       </c>
       <c r="K14" t="n">
-        <v>163.5475711458106</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L14" t="n">
-        <v>202.8952238718789</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M14" t="n">
-        <v>225.7600302817866</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O14" t="n">
-        <v>216.6282505656767</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P14" t="n">
-        <v>184.8871999860971</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.8425873731879</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R14" t="n">
-        <v>80.76369695066401</v>
+        <v>65.8582970511566</v>
       </c>
       <c r="S14" t="n">
-        <v>29.29819504130311</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T14" t="n">
-        <v>5.62821058884495</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.08387421668903385</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H15" t="n">
-        <v>6.643833237100849</v>
+        <v>5.417676003051488</v>
       </c>
       <c r="I15" t="n">
-        <v>23.68487325669467</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J15" t="n">
-        <v>64.99310252515413</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K15" t="n">
-        <v>111.0835641645513</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
@@ -32092,25 +32092,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P15" t="n">
-        <v>131.3620397261112</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.81204474685882</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R15" t="n">
-        <v>42.71121857602164</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S15" t="n">
-        <v>12.77776283338877</v>
+        <v>10.41955398407041</v>
       </c>
       <c r="T15" t="n">
-        <v>2.772789620751897</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H16" t="n">
-        <v>5.127625437558785</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I16" t="n">
-        <v>17.343747390025</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J16" t="n">
-        <v>40.77458387310291</v>
+        <v>33.24940237062826</v>
       </c>
       <c r="K16" t="n">
-        <v>67.00516676073744</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L16" t="n">
-        <v>85.74354438224573</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M16" t="n">
-        <v>90.40454541904505</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N16" t="n">
-        <v>88.25492739307467</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O16" t="n">
-        <v>81.51770992143554</v>
+        <v>66.47315263707451</v>
       </c>
       <c r="P16" t="n">
-        <v>69.75248345734356</v>
+        <v>56.87926567298936</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.29300399320444</v>
+        <v>39.38025527013719</v>
       </c>
       <c r="R16" t="n">
-        <v>25.93173355231669</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S16" t="n">
-        <v>10.05077501411061</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T16" t="n">
-        <v>2.464196273673442</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.28571344119816</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H17" t="n">
-        <v>13.16731277967066</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56746744179213</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J17" t="n">
-        <v>109.1233211798925</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K17" t="n">
-        <v>163.5475711458106</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L17" t="n">
-        <v>202.8952238718789</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M17" t="n">
-        <v>225.7600302817866</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O17" t="n">
-        <v>216.6282505656767</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P17" t="n">
-        <v>184.8871999860971</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.8425873731879</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R17" t="n">
-        <v>80.76369695066401</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S17" t="n">
-        <v>29.29819504130311</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T17" t="n">
-        <v>5.62821058884495</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H18" t="n">
-        <v>6.643833237100849</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I18" t="n">
-        <v>23.68487325669467</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J18" t="n">
-        <v>64.99310252515413</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K18" t="n">
-        <v>111.0835641645513</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
@@ -32329,25 +32329,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P18" t="n">
-        <v>131.3620397261112</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.81204474685882</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R18" t="n">
-        <v>42.71121857602164</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S18" t="n">
-        <v>12.77776283338877</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T18" t="n">
-        <v>2.772789620751897</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H19" t="n">
-        <v>5.127625437558785</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I19" t="n">
-        <v>17.343747390025</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J19" t="n">
-        <v>40.77458387310291</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K19" t="n">
-        <v>67.00516676073744</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L19" t="n">
-        <v>85.74354438224573</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M19" t="n">
-        <v>90.40454541904505</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N19" t="n">
-        <v>88.25492739307467</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O19" t="n">
-        <v>81.51770992143554</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P19" t="n">
-        <v>69.75248345734356</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.29300399320444</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R19" t="n">
-        <v>25.93173355231669</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S19" t="n">
-        <v>10.05077501411061</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T19" t="n">
-        <v>2.464196273673442</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.28571344119816</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H20" t="n">
-        <v>13.16731277967066</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I20" t="n">
-        <v>49.56746744179213</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J20" t="n">
-        <v>109.1233211798925</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K20" t="n">
-        <v>163.5475711458106</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L20" t="n">
-        <v>202.8952238718789</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M20" t="n">
-        <v>225.7600302817866</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N20" t="n">
-        <v>229.4130635965909</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O20" t="n">
-        <v>216.6282505656767</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P20" t="n">
-        <v>184.8871999860971</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.8425873731879</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R20" t="n">
-        <v>80.76369695066401</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S20" t="n">
-        <v>29.29819504130311</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T20" t="n">
-        <v>5.62821058884495</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H21" t="n">
-        <v>6.643833237100849</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I21" t="n">
-        <v>23.68487325669467</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J21" t="n">
-        <v>64.99310252515413</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K21" t="n">
-        <v>111.0835641645513</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
@@ -32566,25 +32566,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P21" t="n">
-        <v>131.3620397261112</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.81204474685882</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R21" t="n">
-        <v>42.71121857602164</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S21" t="n">
-        <v>12.77776283338877</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T21" t="n">
-        <v>2.772789620751897</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H22" t="n">
-        <v>5.127625437558785</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I22" t="n">
-        <v>17.343747390025</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J22" t="n">
-        <v>40.77458387310291</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K22" t="n">
-        <v>67.00516676073744</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L22" t="n">
-        <v>85.74354438224573</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M22" t="n">
-        <v>90.40454541904505</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N22" t="n">
-        <v>88.25492739307467</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O22" t="n">
-        <v>81.51770992143554</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P22" t="n">
-        <v>69.75248345734356</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.29300399320444</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R22" t="n">
-        <v>25.93173355231669</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S22" t="n">
-        <v>10.05077501411061</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T22" t="n">
-        <v>2.464196273673442</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.28571344119816</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H23" t="n">
-        <v>13.16731277967066</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I23" t="n">
-        <v>49.56746744179213</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J23" t="n">
-        <v>109.1233211798925</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K23" t="n">
-        <v>163.5475711458106</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L23" t="n">
-        <v>202.8952238718789</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M23" t="n">
-        <v>225.7600302817866</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N23" t="n">
-        <v>229.4130635965909</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O23" t="n">
-        <v>216.6282505656767</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P23" t="n">
-        <v>184.8871999860971</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q23" t="n">
-        <v>138.8425873731879</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R23" t="n">
-        <v>80.76369695066401</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S23" t="n">
-        <v>29.29819504130311</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T23" t="n">
-        <v>5.62821058884495</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H24" t="n">
-        <v>6.643833237100849</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I24" t="n">
-        <v>23.68487325669467</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J24" t="n">
-        <v>64.99310252515413</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K24" t="n">
-        <v>111.0835641645513</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
@@ -32803,25 +32803,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P24" t="n">
-        <v>131.3620397261112</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.81204474685882</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R24" t="n">
-        <v>42.71121857602164</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S24" t="n">
-        <v>12.77776283338877</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T24" t="n">
-        <v>2.772789620751897</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H25" t="n">
-        <v>5.127625437558785</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I25" t="n">
-        <v>17.343747390025</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J25" t="n">
-        <v>40.77458387310291</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K25" t="n">
-        <v>67.00516676073744</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L25" t="n">
-        <v>85.74354438224573</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M25" t="n">
-        <v>90.40454541904505</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N25" t="n">
-        <v>88.25492739307467</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O25" t="n">
-        <v>81.51770992143554</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P25" t="n">
-        <v>69.75248345734356</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.29300399320444</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R25" t="n">
-        <v>25.93173355231669</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S25" t="n">
-        <v>10.05077501411061</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T25" t="n">
-        <v>2.464196273673442</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.28571344119816</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H26" t="n">
-        <v>13.16731277967066</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I26" t="n">
-        <v>49.56746744179213</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J26" t="n">
-        <v>109.1233211798925</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K26" t="n">
-        <v>163.5475711458106</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L26" t="n">
-        <v>202.8952238718789</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M26" t="n">
-        <v>225.7600302817866</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N26" t="n">
-        <v>229.4130635965909</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O26" t="n">
-        <v>216.6282505656767</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P26" t="n">
-        <v>184.8871999860971</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q26" t="n">
-        <v>138.8425873731879</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R26" t="n">
-        <v>80.76369695066401</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S26" t="n">
-        <v>29.29819504130311</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T26" t="n">
-        <v>5.62821058884495</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H27" t="n">
-        <v>6.643833237100849</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I27" t="n">
-        <v>23.68487325669467</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J27" t="n">
-        <v>64.99310252515413</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K27" t="n">
-        <v>111.0835641645513</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
@@ -33040,25 +33040,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P27" t="n">
-        <v>131.3620397261112</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.81204474685882</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R27" t="n">
-        <v>42.71121857602164</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S27" t="n">
-        <v>12.77776283338877</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T27" t="n">
-        <v>2.772789620751897</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H28" t="n">
-        <v>5.127625437558785</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I28" t="n">
-        <v>17.343747390025</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J28" t="n">
-        <v>40.77458387310291</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K28" t="n">
-        <v>67.00516676073744</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L28" t="n">
-        <v>85.74354438224573</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M28" t="n">
-        <v>90.40454541904505</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N28" t="n">
-        <v>88.25492739307467</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O28" t="n">
-        <v>81.51770992143554</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P28" t="n">
-        <v>69.75248345734356</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.29300399320444</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R28" t="n">
-        <v>25.93173355231669</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S28" t="n">
-        <v>10.05077501411061</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T28" t="n">
-        <v>2.464196273673442</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.28571344119816</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H29" t="n">
-        <v>13.16731277967066</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I29" t="n">
-        <v>49.56746744179212</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J29" t="n">
-        <v>109.1233211798925</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K29" t="n">
-        <v>163.5475711458106</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L29" t="n">
-        <v>202.8952238718788</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M29" t="n">
-        <v>225.7600302817866</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N29" t="n">
-        <v>229.4130635965909</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O29" t="n">
-        <v>216.6282505656767</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P29" t="n">
-        <v>184.8871999860971</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q29" t="n">
-        <v>138.8425873731879</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R29" t="n">
-        <v>80.76369695066401</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S29" t="n">
-        <v>29.29819504130311</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T29" t="n">
-        <v>5.62821058884495</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H30" t="n">
-        <v>6.643833237100848</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I30" t="n">
-        <v>23.68487325669467</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J30" t="n">
-        <v>64.99310252515413</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K30" t="n">
-        <v>111.0835641645513</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
@@ -33277,25 +33277,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P30" t="n">
-        <v>131.3620397261111</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.8120447468588</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R30" t="n">
-        <v>42.71121857602163</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S30" t="n">
-        <v>12.77776283338877</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T30" t="n">
-        <v>2.772789620751897</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H31" t="n">
-        <v>5.127625437558785</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I31" t="n">
-        <v>17.343747390025</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J31" t="n">
-        <v>40.77458387310291</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K31" t="n">
-        <v>67.00516676073742</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L31" t="n">
-        <v>85.74354438224572</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M31" t="n">
-        <v>90.40454541904504</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25492739307465</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O31" t="n">
-        <v>81.51770992143554</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P31" t="n">
-        <v>69.75248345734356</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.29300399320443</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R31" t="n">
-        <v>25.93173355231669</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S31" t="n">
-        <v>10.05077501411061</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T31" t="n">
-        <v>2.464196273673442</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.28571344119816</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H32" t="n">
-        <v>13.16731277967066</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I32" t="n">
-        <v>49.56746744179213</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J32" t="n">
-        <v>109.1233211798925</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K32" t="n">
-        <v>163.5475711458106</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L32" t="n">
-        <v>202.8952238718789</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M32" t="n">
-        <v>225.7600302817866</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N32" t="n">
-        <v>229.4130635965909</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O32" t="n">
-        <v>216.6282505656767</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P32" t="n">
-        <v>184.8871999860971</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q32" t="n">
-        <v>138.8425873731879</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R32" t="n">
-        <v>80.76369695066401</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S32" t="n">
-        <v>29.29819504130311</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T32" t="n">
-        <v>5.62821058884495</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H33" t="n">
-        <v>6.643833237100849</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I33" t="n">
-        <v>23.68487325669467</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J33" t="n">
-        <v>64.99310252515413</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K33" t="n">
-        <v>111.0835641645513</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
@@ -33514,25 +33514,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P33" t="n">
-        <v>131.3620397261112</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.81204474685882</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R33" t="n">
-        <v>42.71121857602164</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S33" t="n">
-        <v>12.77776283338877</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T33" t="n">
-        <v>2.772789620751897</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H34" t="n">
-        <v>5.127625437558785</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I34" t="n">
-        <v>17.343747390025</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J34" t="n">
-        <v>40.77458387310291</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K34" t="n">
-        <v>67.00516676073744</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L34" t="n">
-        <v>85.74354438224573</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M34" t="n">
-        <v>90.40454541904505</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25492739307467</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O34" t="n">
-        <v>81.51770992143554</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P34" t="n">
-        <v>69.75248345734356</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.29300399320444</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R34" t="n">
-        <v>25.93173355231669</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S34" t="n">
-        <v>10.05077501411061</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T34" t="n">
-        <v>2.464196273673442</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.28571344119816</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H35" t="n">
-        <v>13.16731277967066</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I35" t="n">
-        <v>49.56746744179213</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J35" t="n">
-        <v>109.1233211798925</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K35" t="n">
-        <v>163.5475711458106</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L35" t="n">
-        <v>202.8952238718789</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M35" t="n">
-        <v>225.7600302817866</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O35" t="n">
-        <v>216.6282505656767</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P35" t="n">
-        <v>184.8871999860971</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q35" t="n">
-        <v>138.8425873731879</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R35" t="n">
-        <v>80.76369695066401</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S35" t="n">
-        <v>29.29819504130311</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T35" t="n">
-        <v>5.62821058884495</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H36" t="n">
-        <v>6.643833237100849</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I36" t="n">
-        <v>23.68487325669467</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J36" t="n">
-        <v>64.99310252515413</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K36" t="n">
-        <v>111.0835641645513</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
@@ -33751,25 +33751,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P36" t="n">
-        <v>131.3620397261112</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.81204474685882</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R36" t="n">
-        <v>42.71121857602164</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S36" t="n">
-        <v>12.77776283338877</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T36" t="n">
-        <v>2.772789620751897</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H37" t="n">
-        <v>5.127625437558785</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I37" t="n">
-        <v>17.343747390025</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J37" t="n">
-        <v>40.77458387310291</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K37" t="n">
-        <v>67.00516676073744</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L37" t="n">
-        <v>85.74354438224573</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M37" t="n">
-        <v>90.40454541904505</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N37" t="n">
-        <v>88.25492739307467</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O37" t="n">
-        <v>81.51770992143554</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P37" t="n">
-        <v>69.75248345734356</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.29300399320444</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R37" t="n">
-        <v>25.93173355231669</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S37" t="n">
-        <v>10.05077501411061</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T37" t="n">
-        <v>2.464196273673442</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.28571344119816</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H38" t="n">
-        <v>13.16731277967066</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I38" t="n">
-        <v>49.56746744179213</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J38" t="n">
-        <v>109.1233211798925</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K38" t="n">
-        <v>163.5475711458106</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L38" t="n">
-        <v>202.8952238718789</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M38" t="n">
-        <v>225.7600302817866</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N38" t="n">
-        <v>229.4130635965909</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O38" t="n">
-        <v>216.6282505656767</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P38" t="n">
-        <v>184.8871999860971</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q38" t="n">
-        <v>138.8425873731879</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R38" t="n">
-        <v>80.76369695066401</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S38" t="n">
-        <v>29.29819504130311</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T38" t="n">
-        <v>5.62821058884495</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H39" t="n">
-        <v>6.643833237100849</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I39" t="n">
-        <v>23.68487325669467</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J39" t="n">
-        <v>64.99310252515413</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K39" t="n">
-        <v>111.0835641645513</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
@@ -33988,25 +33988,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P39" t="n">
-        <v>131.3620397261112</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.81204474685882</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R39" t="n">
-        <v>42.71121857602164</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S39" t="n">
-        <v>12.77776283338877</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T39" t="n">
-        <v>2.772789620751897</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H40" t="n">
-        <v>5.127625437558785</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I40" t="n">
-        <v>17.343747390025</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J40" t="n">
-        <v>40.77458387310291</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K40" t="n">
-        <v>67.00516676073744</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L40" t="n">
-        <v>85.74354438224573</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M40" t="n">
-        <v>90.40454541904505</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N40" t="n">
-        <v>88.25492739307467</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O40" t="n">
-        <v>81.51770992143554</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P40" t="n">
-        <v>69.75248345734356</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.29300399320444</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R40" t="n">
-        <v>25.93173355231669</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S40" t="n">
-        <v>10.05077501411061</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T40" t="n">
-        <v>2.464196273673442</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.28571344119816</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H41" t="n">
-        <v>13.16731277967066</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179213</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J41" t="n">
-        <v>109.1233211798925</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K41" t="n">
-        <v>163.5475711458106</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L41" t="n">
-        <v>202.8952238718789</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M41" t="n">
-        <v>225.7600302817866</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O41" t="n">
-        <v>216.6282505656767</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P41" t="n">
-        <v>184.8871999860971</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.8425873731879</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R41" t="n">
-        <v>80.76369695066401</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S41" t="n">
-        <v>29.29819504130311</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T41" t="n">
-        <v>5.62821058884495</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100849</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I42" t="n">
-        <v>23.68487325669467</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J42" t="n">
-        <v>64.99310252515413</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K42" t="n">
-        <v>111.0835641645513</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
@@ -34225,25 +34225,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P42" t="n">
-        <v>131.3620397261112</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.81204474685882</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602164</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S42" t="n">
-        <v>12.77776283338877</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T42" t="n">
-        <v>2.772789620751897</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H43" t="n">
-        <v>5.127625437558785</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I43" t="n">
-        <v>17.343747390025</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J43" t="n">
-        <v>40.77458387310291</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073744</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224573</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904505</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307467</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O43" t="n">
-        <v>81.51770992143554</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P43" t="n">
-        <v>69.75248345734356</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320444</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R43" t="n">
-        <v>25.93173355231669</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S43" t="n">
-        <v>10.05077501411061</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T43" t="n">
-        <v>2.464196273673442</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.28571344119816</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H44" t="n">
-        <v>13.16731277967066</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I44" t="n">
-        <v>49.56746744179213</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J44" t="n">
-        <v>109.1233211798925</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K44" t="n">
-        <v>163.5475711458106</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L44" t="n">
-        <v>202.8952238718789</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M44" t="n">
-        <v>225.7600302817866</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O44" t="n">
-        <v>216.6282505656767</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P44" t="n">
-        <v>184.8871999860971</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.8425873731879</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R44" t="n">
-        <v>80.76369695066401</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S44" t="n">
-        <v>29.29819504130311</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T44" t="n">
-        <v>5.62821058884495</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H45" t="n">
-        <v>6.643833237100849</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I45" t="n">
-        <v>23.68487325669467</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J45" t="n">
-        <v>64.99310252515413</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K45" t="n">
-        <v>111.0835641645513</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
@@ -34462,25 +34462,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P45" t="n">
-        <v>131.3620397261112</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.81204474685882</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R45" t="n">
-        <v>42.71121857602164</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S45" t="n">
-        <v>12.77776283338877</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T45" t="n">
-        <v>2.772789620751897</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H46" t="n">
-        <v>5.127625437558785</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I46" t="n">
-        <v>17.343747390025</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J46" t="n">
-        <v>40.77458387310291</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K46" t="n">
-        <v>67.00516676073744</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L46" t="n">
-        <v>85.74354438224573</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M46" t="n">
-        <v>90.40454541904505</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N46" t="n">
-        <v>88.25492739307467</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O46" t="n">
-        <v>81.51770992143554</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P46" t="n">
-        <v>69.75248345734356</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.29300399320444</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R46" t="n">
-        <v>25.93173355231669</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S46" t="n">
-        <v>10.05077501411061</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T46" t="n">
-        <v>2.464196273673442</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
